--- a/USHPRR/USi_AIMD_rdfs.xlsx
+++ b/USHPRR/USi_AIMD_rdfs.xlsx
@@ -8,32 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D53FF9-CDFE-214A-9121-4DA35E1CA97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E28BB-B1FE-A648-8EC6-DE410EE64B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{2ACD19B5-E87B-0340-98DE-60710800C2AC}"/>
+    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2ACD19B5-E87B-0340-98DE-60710800C2AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$52</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$52</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$3:$C$52</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$3:$D$52</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$3:$A$52</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$B$52</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$3:$C$52</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$3:$D$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$3:$C$52</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$3:$D$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$3:$A$52</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$3:$C$52</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$3:$D$52</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$3:$A$52</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$B$52</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>r</t>
   </si>
@@ -81,6 +64,15 @@
   </si>
   <si>
     <t>ideal POSCAR</t>
+  </si>
+  <si>
+    <t>1000K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afm U=1.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">afm U=3 </t>
   </si>
 </sst>
 </file>
@@ -6088,6 +6080,2464 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C54-8045-8737-1193CA194AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2112809167"/>
+        <c:axId val="2112781407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2112809167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112781407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112781407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112809167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.104312</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38944099999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63756800000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76851400000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6043400000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2649900000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0610200000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7565499999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5439799999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1088499999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.94357</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3576600000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.96299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.08236</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.844387</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.26867099999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.12836600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1857200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9187199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.75546E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6021999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20748800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2A3-3744-BC5A-34323F063C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16805200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4422799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.3242899999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1973000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.05938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0829299999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33974900000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.339E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41718899999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.644625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91110199999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0703100000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0536399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3746100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2A3-3744-BC5A-34323F063C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.38073</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.85825</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9316599999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.252079</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.143099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.135569</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38585599999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0996999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1381999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4315799999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7997399999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5187900000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86646999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.18417900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52902700000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1829700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0536399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62246400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2A3-3744-BC5A-34323F063C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2112809167"/>
+        <c:axId val="2112781407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2112809167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112781407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112781407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112809167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.9359300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0073399999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.08134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7992599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.30681</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.32412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1535500000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.81857</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6217600000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.39009</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56231699999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26866499999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.5661799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9300099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23A1-4040-B1CF-6A0027B7D34D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$4:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.7931700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1286200000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9602899999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5068099999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.5008900000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8331499999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.829592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16761400000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2768299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7166100000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.38547799999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.36907699999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.12005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2439800000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0585199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23A1-4040-B1CF-6A0027B7D34D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$4:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72245099999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3234400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6815000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26919300000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63934100000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.70285</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5485000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7554400000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3228099999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.01498</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86732500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46134599999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.70740199999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.84816599999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89566900000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23A1-4040-B1CF-6A0027B7D34D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6480,6 +8930,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8545,6 +11075,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9245,6 +12807,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465A94C6-A67C-4649-B356-9A1B7BEA2061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A549581-1B9A-444A-B60E-72E4D4F7F0E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9552,8 +13195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C854FE-421E-2D4A-A22D-FB4CA3B9451B}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12741,4 +16384,1359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E383DC8-CB7B-1D41-A548-6AA87839D688}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.35</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.45</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.45</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.65</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.65</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.75</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.75</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.85</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.85</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.95</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.95</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.05</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.05</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.25</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.25</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.35</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.35</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.45</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.45</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.55</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.55</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.65</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.65</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.75</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.75</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.85</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.85</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.95</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.95</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.15</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2.15</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2.25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2.25</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2.35</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1.38073</v>
+      </c>
+      <c r="F27">
+        <v>2.35</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.72245099999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2.85825</v>
+      </c>
+      <c r="F28">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3.3234400000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2.9316599999999999</v>
+      </c>
+      <c r="F29">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>3.6815000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2.65</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.65</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2.75</v>
+      </c>
+      <c r="B31">
+        <v>0.22406999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.16805200000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.252079</v>
+      </c>
+      <c r="F31">
+        <v>2.75</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>8.7931700000000002E-2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2.85</v>
+      </c>
+      <c r="B32">
+        <v>0.104312</v>
+      </c>
+      <c r="C32">
+        <v>3.4422799999999998</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2.85</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2.1286200000000002</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2.95</v>
+      </c>
+      <c r="B33">
+        <v>0.38944099999999998</v>
+      </c>
+      <c r="C33">
+        <v>8.3242899999999995</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2.95</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>5.9602899999999996</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3.05</v>
+      </c>
+      <c r="B34">
+        <v>0.63756800000000002</v>
+      </c>
+      <c r="C34">
+        <v>8.1973000000000003</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3.05</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>8.5068099999999998</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3.15</v>
+      </c>
+      <c r="B35">
+        <v>0.76851400000000003</v>
+      </c>
+      <c r="C35">
+        <v>5.05938</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3.15</v>
+      </c>
+      <c r="G35">
+        <v>8.9359300000000003E-2</v>
+      </c>
+      <c r="H35">
+        <v>6.5008900000000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3.25</v>
+      </c>
+      <c r="B36">
+        <v>1.6043400000000001</v>
+      </c>
+      <c r="C36">
+        <v>1.0829299999999999</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3.25</v>
+      </c>
+      <c r="G36">
+        <v>1.0073399999999999</v>
+      </c>
+      <c r="H36">
+        <v>2.8331499999999998</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3.35</v>
+      </c>
+      <c r="B37">
+        <v>2.2649900000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.33974900000000002</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3.35</v>
+      </c>
+      <c r="G37">
+        <v>3.08134</v>
+      </c>
+      <c r="H37">
+        <v>0.829592</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3.45</v>
+      </c>
+      <c r="B38">
+        <v>3.0610200000000001</v>
+      </c>
+      <c r="C38">
+        <v>5.339E-2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3.45</v>
+      </c>
+      <c r="G38">
+        <v>3.7992599999999999</v>
+      </c>
+      <c r="H38">
+        <v>0.16761400000000001</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3.55</v>
+      </c>
+      <c r="B39">
+        <v>2.7565499999999998</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3.55</v>
+      </c>
+      <c r="G39">
+        <v>3.30681</v>
+      </c>
+      <c r="H39">
+        <v>5.2768299999999997E-2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3.65</v>
+      </c>
+      <c r="B40">
+        <v>2.5439799999999999</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.143099</v>
+      </c>
+      <c r="F40">
+        <v>3.65</v>
+      </c>
+      <c r="G40">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3.75</v>
+      </c>
+      <c r="B41">
+        <v>2.1088499999999999</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.135569</v>
+      </c>
+      <c r="F41">
+        <v>3.75</v>
+      </c>
+      <c r="G41">
+        <v>1.32412</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3.85</v>
+      </c>
+      <c r="B42">
+        <v>1.94357</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.38585599999999998</v>
+      </c>
+      <c r="F42">
+        <v>3.85</v>
+      </c>
+      <c r="G42">
+        <v>2.1535500000000001</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.26919300000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3.95</v>
+      </c>
+      <c r="B43">
+        <v>1.3576600000000001</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1.0996999999999999</v>
+      </c>
+      <c r="F43">
+        <v>3.95</v>
+      </c>
+      <c r="G43">
+        <v>1.81857</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.63934100000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4.05</v>
+      </c>
+      <c r="B44">
+        <v>1.96299</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3.1381999999999999</v>
+      </c>
+      <c r="F44">
+        <v>4.05</v>
+      </c>
+      <c r="G44">
+        <v>1.6217600000000001</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1.70285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B45">
+        <v>1.08236</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>3.4315799999999999</v>
+      </c>
+      <c r="F45">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G45">
+        <v>1.39009</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>2.5485000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4.25</v>
+      </c>
+      <c r="B46">
+        <v>0.844387</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>3.7997399999999999</v>
+      </c>
+      <c r="F46">
+        <v>4.25</v>
+      </c>
+      <c r="G46">
+        <v>1.08</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>3.7554400000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B47">
+        <v>0.26867099999999999</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2.5187900000000001</v>
+      </c>
+      <c r="F47">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G47">
+        <v>0.56231699999999996</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>4.3228099999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4.45</v>
+      </c>
+      <c r="B48">
+        <v>0.12836600000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.41718899999999998</v>
+      </c>
+      <c r="D48">
+        <v>0.86646999999999996</v>
+      </c>
+      <c r="F48">
+        <v>4.45</v>
+      </c>
+      <c r="G48">
+        <v>0.26866499999999999</v>
+      </c>
+      <c r="H48">
+        <v>6.7166100000000006E-2</v>
+      </c>
+      <c r="I48">
+        <v>2.01498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4.55</v>
+      </c>
+      <c r="B49">
+        <v>8.1857200000000005E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.644625</v>
+      </c>
+      <c r="D49">
+        <v>0.18417900000000001</v>
+      </c>
+      <c r="F49">
+        <v>4.55</v>
+      </c>
+      <c r="G49">
+        <v>8.5661799999999996E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.38547799999999999</v>
+      </c>
+      <c r="I49">
+        <v>0.86732500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B50">
+        <v>3.9187199999999998E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.91110199999999997</v>
+      </c>
+      <c r="D50">
+        <v>0.52902700000000003</v>
+      </c>
+      <c r="F50">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.36907699999999999</v>
+      </c>
+      <c r="I50">
+        <v>0.46134599999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4.75</v>
+      </c>
+      <c r="B51">
+        <v>3.75546E-2</v>
+      </c>
+      <c r="C51">
+        <v>1.0703100000000001</v>
+      </c>
+      <c r="D51">
+        <v>1.1829700000000001</v>
+      </c>
+      <c r="F51">
+        <v>4.75</v>
+      </c>
+      <c r="G51">
+        <v>3.9300099999999998E-2</v>
+      </c>
+      <c r="H51">
+        <v>1.12005</v>
+      </c>
+      <c r="I51">
+        <v>0.70740199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="B52">
+        <v>3.6021999999999998E-2</v>
+      </c>
+      <c r="C52">
+        <v>1.0536399999999999</v>
+      </c>
+      <c r="D52">
+        <v>1.0536399999999999</v>
+      </c>
+      <c r="F52">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1.2439800000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.84816599999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4.95</v>
+      </c>
+      <c r="B53">
+        <v>0.20748800000000001</v>
+      </c>
+      <c r="C53">
+        <v>1.3746100000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.62246400000000002</v>
+      </c>
+      <c r="F53">
+        <v>4.95</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1.0585199999999999</v>
+      </c>
+      <c r="I53">
+        <v>0.89566900000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/USHPRR/USi_AIMD_rdfs.xlsx
+++ b/USHPRR/USi_AIMD_rdfs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E28BB-B1FE-A648-8EC6-DE410EE64B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EFFD8E-DAF4-0741-B77B-99B19A56DFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2ACD19B5-E87B-0340-98DE-60710800C2AC}"/>
+    <workbookView minimized="1" xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2ACD19B5-E87B-0340-98DE-60710800C2AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>r</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">afm U=3 </t>
+  </si>
+  <si>
+    <t>afm 160at U=1.5</t>
   </si>
 </sst>
 </file>
@@ -6309,6 +6312,1235 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27828599999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61843700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.91927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3666600000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9527700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85593600000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4073699999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3985799999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.74152</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.18591</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25847199999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7167199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1475300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4418100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2066100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.140268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68859199999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71282599999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0804800000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7874100000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.9998200000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.44622800000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.47718E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B502-A74F-9EFB-F293CB456A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.29489599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.400499999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.6027</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85035000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13512299999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.19038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0438799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72818099999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1751100000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.92367</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68859199999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27416400000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43270500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.04637</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.81534</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93476999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.166182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B502-A74F-9EFB-F293CB456A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$3:$AC$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64238700000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70460299999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.231292</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0317799999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1313599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9756</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55013500000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.49446600000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.61802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.14192</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7284899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46922399999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6046100000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8857600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B502-A74F-9EFB-F293CB456A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2112809167"/>
+        <c:axId val="2112781407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2112809167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112781407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112781407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112809167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet2!$A$4:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -7501,7 +8733,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9010,6 +10242,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12107,6 +13379,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12812,6 +14600,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52657A8-F84E-C74D-B3BB-98E1DD67AD3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12897,7 +14723,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13185,7 +15011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13193,15 +15019,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C854FE-421E-2D4A-A22D-FB4CA3B9451B}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13217,8 +15043,11 @@
       <c r="U1" t="s">
         <v>8</v>
       </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13279,8 +15108,20 @@
       <c r="X2" t="s">
         <v>3</v>
       </c>
+      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -13341,8 +15182,20 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0.06</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.15</v>
       </c>
@@ -13403,8 +15256,20 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Z4">
+        <v>0.18</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -13465,8 +15330,20 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Z5">
+        <v>0.3</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.35</v>
       </c>
@@ -13527,8 +15404,20 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Z6">
+        <v>0.42</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.45</v>
       </c>
@@ -13589,8 +15478,20 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Z7">
+        <v>0.54</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.55000000000000004</v>
       </c>
@@ -13651,8 +15552,20 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Z8">
+        <v>0.66</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.65</v>
       </c>
@@ -13713,8 +15626,20 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0.78</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.75</v>
       </c>
@@ -13775,8 +15700,20 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Z10">
+        <v>0.9</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.85</v>
       </c>
@@ -13837,8 +15774,20 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Z11">
+        <v>1.02</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.95</v>
       </c>
@@ -13899,8 +15848,20 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.05</v>
       </c>
@@ -13961,8 +15922,20 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Z13">
+        <v>1.26</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.1499999999999999</v>
       </c>
@@ -14023,8 +15996,20 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>1.38</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.25</v>
       </c>
@@ -14085,8 +16070,20 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Z15">
+        <v>1.5</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.35</v>
       </c>
@@ -14147,8 +16144,20 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Z16">
+        <v>1.62</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.45</v>
       </c>
@@ -14209,8 +16218,20 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>1.74</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.55</v>
       </c>
@@ -14271,8 +16292,20 @@
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="Z18">
+        <v>1.86</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.65</v>
       </c>
@@ -14333,8 +16366,20 @@
       <c r="X19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>1.98</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.75</v>
       </c>
@@ -14395,8 +16440,20 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>2.1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.85</v>
       </c>
@@ -14457,8 +16514,20 @@
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.95</v>
       </c>
@@ -14519,8 +16588,20 @@
       <c r="X22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>2.34</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0.64238700000000004</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.0499999999999998</v>
       </c>
@@ -14581,8 +16662,20 @@
       <c r="X23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>2.46</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>4.8437999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.15</v>
       </c>
@@ -14643,8 +16736,20 @@
       <c r="X24">
         <v>0</v>
       </c>
+      <c r="Z24">
+        <v>2.58</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0.70460299999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.25</v>
       </c>
@@ -14705,8 +16810,20 @@
       <c r="X25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>2.7</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.35</v>
       </c>
@@ -14767,8 +16884,20 @@
       <c r="X26">
         <v>7.36327</v>
       </c>
+      <c r="Z26">
+        <v>2.82</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0.29489599999999999</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.4500000000000002</v>
       </c>
@@ -14829,8 +16958,20 @@
       <c r="X27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>2.94</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>10.400499999999999</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.5499999999999998</v>
       </c>
@@ -14891,8 +17032,20 @@
       <c r="X28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>3.06</v>
+      </c>
+      <c r="AA28">
+        <v>0.27828599999999998</v>
+      </c>
+      <c r="AB28">
+        <v>10.6027</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.65</v>
       </c>
@@ -14953,8 +17106,20 @@
       <c r="X29">
         <v>0</v>
       </c>
+      <c r="Z29">
+        <v>3.18</v>
+      </c>
+      <c r="AA29">
+        <v>0.61843700000000001</v>
+      </c>
+      <c r="AB29">
+        <v>0.85035000000000005</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.75</v>
       </c>
@@ -15015,8 +17180,20 @@
       <c r="X30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>3.3</v>
+      </c>
+      <c r="AA30">
+        <v>2.91927</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.85</v>
       </c>
@@ -15077,8 +17254,20 @@
       <c r="X31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>3.42</v>
+      </c>
+      <c r="AA31">
+        <v>4.3666600000000004</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.95</v>
       </c>
@@ -15139,8 +17328,20 @@
       <c r="X32">
         <v>0</v>
       </c>
+      <c r="Z32">
+        <v>3.54</v>
+      </c>
+      <c r="AA32">
+        <v>2.9527700000000001</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.05</v>
       </c>
@@ -15201,8 +17402,20 @@
       <c r="X33">
         <v>0</v>
       </c>
+      <c r="Z33">
+        <v>3.66</v>
+      </c>
+      <c r="AA33">
+        <v>0.85593600000000003</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.15</v>
       </c>
@@ -15263,8 +17476,20 @@
       <c r="X34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>3.78</v>
+      </c>
+      <c r="AA34">
+        <v>2.4073699999999998</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.25</v>
       </c>
@@ -15325,8 +17550,20 @@
       <c r="X35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>3.9</v>
+      </c>
+      <c r="AA35">
+        <v>2.3985799999999999</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0.231292</v>
+      </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.35</v>
       </c>
@@ -15387,8 +17624,20 @@
       <c r="X36">
         <v>0</v>
       </c>
+      <c r="Z36">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AA36">
+        <v>1.74152</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>2.0317799999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.45</v>
       </c>
@@ -15449,8 +17698,20 @@
       <c r="X37">
         <v>0</v>
       </c>
+      <c r="Z37">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AA37">
+        <v>1.18591</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>5.1313599999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.55</v>
       </c>
@@ -15511,8 +17772,20 @@
       <c r="X38">
         <v>0</v>
       </c>
+      <c r="Z38">
+        <v>4.26</v>
+      </c>
+      <c r="AA38">
+        <v>0.25847199999999998</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>4.9756</v>
+      </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.65</v>
       </c>
@@ -15573,8 +17846,20 @@
       <c r="X39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>4.38</v>
+      </c>
+      <c r="AA39">
+        <v>2.7167199999999999E-2</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0.55013500000000004</v>
+      </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.75</v>
       </c>
@@ -15635,8 +17920,20 @@
       <c r="X40">
         <v>0</v>
       </c>
+      <c r="Z40">
+        <v>4.5</v>
+      </c>
+      <c r="AA40">
+        <v>5.1475300000000002E-2</v>
+      </c>
+      <c r="AB40">
+        <v>0.13512299999999999</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.85</v>
       </c>
@@ -15697,8 +17994,20 @@
       <c r="X41">
         <v>3.2009099999999999</v>
       </c>
+      <c r="Z41">
+        <v>4.62</v>
+      </c>
+      <c r="AA41">
+        <v>2.4418100000000002E-2</v>
+      </c>
+      <c r="AB41">
+        <v>1.19038</v>
+      </c>
+      <c r="AC41">
+        <v>0.49446600000000002</v>
+      </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3.95</v>
       </c>
@@ -15759,8 +18068,20 @@
       <c r="X42">
         <v>2.1720700000000002</v>
       </c>
+      <c r="Z42">
+        <v>4.74</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1.0438799999999999</v>
+      </c>
+      <c r="AC42">
+        <v>1.61802</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.05</v>
       </c>
@@ -15821,8 +18142,20 @@
       <c r="X43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>2.2066100000000002E-2</v>
+      </c>
+      <c r="AB43">
+        <v>0.72818099999999997</v>
+      </c>
+      <c r="AC43">
+        <v>1.14192</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4.1500000000000004</v>
       </c>
@@ -15883,8 +18216,20 @@
       <c r="X44">
         <v>9.4452800000000003</v>
       </c>
+      <c r="Z44">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>2.1751100000000001</v>
+      </c>
+      <c r="AC44">
+        <v>4.7284899999999998E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.25</v>
       </c>
@@ -15945,8 +18290,20 @@
       <c r="X45">
         <v>0</v>
       </c>
+      <c r="Z45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA45">
+        <v>0.140268</v>
+      </c>
+      <c r="AB45">
+        <v>1.92367</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.3499999999999996</v>
       </c>
@@ -16007,8 +18364,20 @@
       <c r="X46">
         <v>0</v>
       </c>
+      <c r="Z46">
+        <v>5.22</v>
+      </c>
+      <c r="AA46">
+        <v>0.68859199999999998</v>
+      </c>
+      <c r="AB46">
+        <v>0.68859199999999998</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.45</v>
       </c>
@@ -16069,8 +18438,20 @@
       <c r="X47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>5.34</v>
+      </c>
+      <c r="AA47">
+        <v>0.71282599999999996</v>
+      </c>
+      <c r="AB47">
+        <v>0.27416400000000002</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.55</v>
       </c>
@@ -16131,8 +18512,20 @@
       <c r="X48">
         <v>3.92882</v>
       </c>
+      <c r="Z48">
+        <v>5.46</v>
+      </c>
+      <c r="AA48">
+        <v>2.0804800000000001</v>
+      </c>
+      <c r="AB48">
+        <v>0.43270500000000001</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.6500000000000004</v>
       </c>
@@ -16193,8 +18586,20 @@
       <c r="X49">
         <v>0</v>
       </c>
+      <c r="Z49">
+        <v>5.58</v>
+      </c>
+      <c r="AA49">
+        <v>4.7874100000000004</v>
+      </c>
+      <c r="AB49">
+        <v>2.04637</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.75</v>
       </c>
@@ -16255,8 +18660,20 @@
       <c r="X50">
         <v>0</v>
       </c>
+      <c r="Z50">
+        <v>5.7</v>
+      </c>
+      <c r="AA50">
+        <v>2.9998200000000002</v>
+      </c>
+      <c r="AB50">
+        <v>2.81534</v>
+      </c>
+      <c r="AC50">
+        <v>0.46922399999999997</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4.8499999999999996</v>
       </c>
@@ -16317,8 +18734,20 @@
       <c r="X51">
         <v>0</v>
       </c>
+      <c r="Z51">
+        <v>5.82</v>
+      </c>
+      <c r="AA51">
+        <v>0.44622800000000001</v>
+      </c>
+      <c r="AB51">
+        <v>0.93476999999999999</v>
+      </c>
+      <c r="AC51">
+        <v>4.6046100000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4.95</v>
       </c>
@@ -16378,6 +18807,18 @@
       </c>
       <c r="X52">
         <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>5.94</v>
+      </c>
+      <c r="AA52">
+        <v>1.47718E-2</v>
+      </c>
+      <c r="AB52">
+        <v>0.166182</v>
+      </c>
+      <c r="AC52">
+        <v>4.8857600000000003</v>
       </c>
     </row>
   </sheetData>
